--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestVagrantProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449D52C-BCA6-4509-9C8D-8B9425608E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37063F-51B2-4566-AC7A-947BD7499B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>311001,IN</t>
+  </si>
+  <si>
+    <t>TempVariance</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -413,6 +416,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
